--- a/Assignment2_solutionByMonika.xlsx
+++ b/Assignment2_solutionByMonika.xlsx
@@ -899,13 +899,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -914,8 +914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="447675" y="0"/>
-          <a:ext cx="10010775" cy="5953125"/>
+          <a:off x="447675" y="1"/>
+          <a:ext cx="10010775" cy="4581524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -951,7 +951,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:rPr lang="en-US" sz="1600" b="1" u="sng"/>
             <a:t>Assignment 2 Solution</a:t>
           </a:r>
         </a:p>
@@ -963,39 +963,55 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>1. Monthly and Quarterly Sales</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> are on Sheet1.</a:t>
+            <a:t> are on Sheet1 where(</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Q1: August to October, Q2: November to January, Q3: February to April, Q4: May to July)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1200" b="0" baseline="0">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>2.  Top 3 months are Mrach, December and January with sales as  </a:t>
+            <a:t>2. Top 3 months are Mrach, December and January with sales as  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>[('March_20', 20234570), ('December_19', 19536270), ('January_20', 19170099)]</a:t>
           </a:r>
@@ -1003,30 +1019,33 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>3. SKU which are outliers </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>'PBUM01077', '65001', '38320', '65007', '65906', '51373', '14119', '65503', '38058', '38538', '30373', '65205', '38194', '14121', '65202', '47101', '21011'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t> .</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
@@ -1041,21 +1060,21 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: August_19 ['14119' '21011' '30373' '38058' '38194' '38320' '38538' '47101' '65001' '65007' '65202' '65205' '65503'] </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: September_19 ['14119' '21011' '30373' '38058' '38194' '38320' '38538' '47101' '65001' '65007' '65202' '65205' '65503'] </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: October_19 ['14119' '21011' '38058' '38194' '38320' '38538' '47101' '65001' '65007' '65202' '65205' '65503'</a:t>
@@ -1070,71 +1089,67 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: November_19 ['14119' '21011' '30373' '38058' '38194' '38320' '38538' '47101' '65001' '65007' '65202' '65503' 'PBUM01077']</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: December_19 ['14119' '21011' '38058' '38194' '38320' '38538' '47101' '65001' '65007' '65202' '65205' '65503' 'PBUM01077']</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: January_20 ['14119' '21011' '38058' '38194' '38320' '38538' '47101' '65001' '65007' '65202' '65205' '65503' 'PBUM01077'] </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: February_20 ['14119' '21011' '38058' '38194' '38320' '38538' '47101' '65001' '65007' '65202' '65205' '65503' 'PBUM01077'] </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: March_20 ['14119' '21011' '30373' '38058' '38194' '38320' '38538' '47101' '51373' '65001' '65202' '65205' 'PBUM01077'] </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: April_20 ['14119' '21011' '30373' '38058' '38194' '38320' '38538' '47101' '51373' '65001' '65202' '65205' '65906'] </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: May_20 ['14119' '14121' '21011' '38058' '38194' '38320' '38538' '47101' '51373' '65001' '65202' '65205' '65906'] </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: June_20 ['14119' '14121' '21011' '38058' '38194' '38320' '38538' '47101' '51373' '65001' '65202' '65503' '65906'] </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr lvl="1" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>Outliers for Month: July_20 ['14119' '14121' '21011' '38058' '38194' '38320' '38538' '47101' '51373' '65001' '65202' '65503' '65906']</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1200" b="0" baseline="0">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -1157,15 +1172,11 @@
             <a:t>Github link to Jupyter Notebook :-  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" i="1">
+            <a:rPr lang="en-US" sz="1200">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
             </a:rPr>
-            <a:t>https://github.com/monikajuneja16/Assignments/blob/master/assignment2.ipynb</a:t>
+            <a:t>https://github.com/monikajuneja16/Assignments/blob/master/assignment2_solution.ipynb</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" i="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1200" b="0" baseline="0">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -1481,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,13 +1507,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
